--- a/BaseLimpo/2021_coleta_tipos_residuos.xlsx
+++ b/BaseLimpo/2021_coleta_tipos_residuos.xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Domiciliar                                            </t>
+          <t>Domiciliar</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -554,7 +554,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Mecanizado                                    </t>
+          <t>Entulho Mecanizado</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -600,7 +600,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto                                  </t>
+          <t>Residuos De Ecoponto</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -646,7 +646,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Diversos                                              </t>
+          <t>Diversos</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -692,7 +692,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esgoto                                                </t>
+          <t>Esgoto</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -738,7 +738,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Piscinao                                  </t>
+          <t>Residuos De Piscinao</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -784,7 +784,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Corregos                                  </t>
+          <t>Residuos De Corregos</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -830,7 +830,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao                                              </t>
+          <t>Varricao</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -876,7 +876,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Seletiva                                              </t>
+          <t>Seletiva</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -922,7 +922,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feira Livre                                           </t>
+          <t>Feira Livre</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -968,7 +968,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Manual                                        </t>
+          <t>Entulho Manual</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1014,7 +1014,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poda                                                  </t>
+          <t>Poda</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1060,7 +1060,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gg Saude                                              </t>
+          <t>Gg Saude</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1106,7 +1106,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito-Cmt Cmj                                       </t>
+          <t>Rejeito-Cmt Cmj</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1152,7 +1152,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Boca De Lobo                              </t>
+          <t>Residuos De Boca De Lobo</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1198,7 +1198,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pg Saude                                              </t>
+          <t>Pg Saude</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1244,7 +1244,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Remocao Residuos Descartados                          </t>
+          <t>Remocao Residuos Descartados</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1290,7 +1290,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos Patio Compostagem                            </t>
+          <t>Residuos Patio Compostagem</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1336,7 +1336,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rejeito                                               </t>
+          <t>Rejeito</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1382,7 +1382,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Apreendido                                    </t>
+          <t>Entulho Apreendido</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1428,7 +1428,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Madeira                                               </t>
+          <t>Madeira</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1474,7 +1474,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Animais                                               </t>
+          <t>Animais</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1520,7 +1520,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varricao Mecanizada                                   </t>
+          <t>Varricao Mecanizada</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1566,7 +1566,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alim Vencidos                                         </t>
+          <t>Alim Vencidos</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1612,7 +1612,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Material Apreendido                                   </t>
+          <t>Material Apreendido</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1658,7 +1658,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo De Acumulador                                 </t>
+          <t>Residuo De Acumulador</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1704,7 +1704,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo De Desfazimento                               </t>
+          <t>Residuo De Desfazimento</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1750,7 +1750,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equipe De Eventos Especiais E Operacoes De Emergencia </t>
+          <t>Equipe De Eventos Especiais E Operacoes De Emergencia</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1796,7 +1796,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuo Ecoponto - Entulho                            </t>
+          <t>Residuo Ecoponto - Entulho</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1842,7 +1842,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Entulho Do Predio                                     </t>
+          <t>Entulho Do Predio</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1888,7 +1888,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limpeza Urbana                                        </t>
+          <t>Limpeza Urbana</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1934,7 +1934,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Residuos De Ecoponto - Diversos                       </t>
+          <t>Residuos De Ecoponto - Diversos</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1980,7 +1980,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Total Geral                                           </t>
+          <t>Total Geral</t>
         </is>
       </c>
       <c r="B34" t="n">
